--- a/数据整理/stocks/A股/上证主板/603298-杭叉集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603298-杭叉集团.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007775</t>
+          <t>673110</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇安量化先锋混合A</t>
+          <t>西部利得新润灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2767</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007776</t>
+          <t>002295</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇安量化先锋混合C</t>
+          <t>广发稳安灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005429</t>
+          <t>005403</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>渤海汇金睿选混合A</t>
+          <t>南方融尚再融资主题精选灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>34.94</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>81.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005430</t>
+          <t>007775</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>渤海汇金睿选混合C</t>
+          <t>汇安量化先锋混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>34.94</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007950</t>
+          <t>001917</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>招商量化精选股票C</t>
+          <t>招商量化精选股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>94.27</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1.33</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002295</t>
+          <t>007776</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发稳安灵活配置混合A</t>
+          <t>汇安量化先锋混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>90.34</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001917</t>
+          <t>007950</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>招商量化精选股票A</t>
+          <t>招商量化精选股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>94.27</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1.33</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005021</t>
+          <t>005429</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>渤海汇金量化汇盈灵活配置混合</t>
+          <t>渤海汇金睿选混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.07</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>34.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005403</t>
+          <t>005021</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>南方融尚再融资主题精选灵活配置混合</t>
+          <t>渤海汇金量化汇盈灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>81.57</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -754,15 +854,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>90.34</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>4.38</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>8</v>
       </c>
     </row>
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>673110</t>
+          <t>005430</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>西部利得新润灵活配置混合</t>
+          <t>渤海汇金睿选混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>82.43</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>34.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -805,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,15 +946,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -846,26 +976,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009448</t>
+          <t>910022</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康申润一年持有期混合A</t>
+          <t>东方红启航三年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.97</t>
+          <t>28.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9397</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009449</t>
+          <t>010225</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康申润一年持有期混合C</t>
+          <t>东方红启航三年持有期混合B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.97</t>
+          <t>15.85</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5310</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160324</t>
+          <t>673110</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏磐晟灵活配置混合（LOF）</t>
+          <t>西部利得新润灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>88.35</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.03</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010157</t>
+          <t>001798</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇安中证500指数增强A</t>
+          <t>泰康新回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89.09</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010158</t>
+          <t>002331</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇安中证500指数增强C</t>
+          <t>泰康安泰回报混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.09</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001798</t>
+          <t>010157</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰康新回报灵活配置混合A</t>
+          <t>汇安中证500指数增强A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>88.77</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001799</t>
+          <t>160324</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰康新回报灵活配置混合C</t>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>88.77</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001917</t>
+          <t>009448</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>招商量化精选股票A</t>
+          <t>泰康申润一年持有期混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007950</t>
+          <t>010158</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>招商量化精选股票C</t>
+          <t>汇安中证500指数增强C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>673110</t>
+          <t>007775</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>西部利得新润灵活配置混合</t>
+          <t>汇安量化先锋混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>80.27</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002331</t>
+          <t>001917</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>泰康安泰回报混合</t>
+          <t>招商量化精选股票A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>23.97</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007775</t>
+          <t>001799</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>汇安量化先锋混合A</t>
+          <t>泰康新回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.54</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1192,15 +1442,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>93.54</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>4.05</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>910022</t>
+          <t>009449</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>东方红启航三年持有期混合A</t>
+          <t>泰康申润一年持有期混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010225</t>
+          <t>007950</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>东方红启航三年持有期混合B</t>
+          <t>招商量化精选股票C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603298-杭叉集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603298-杭叉集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1543,4 +1544,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009448</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009449</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603298-杭叉集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603298-杭叉集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1676,4 +1677,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603298-杭叉集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603298-杭叉集团.xlsx
@@ -1701,12 +1701,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603298-杭叉集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603298-杭叉集团.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1685,7 +1686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1696,17 +1697,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1716,14 +1737,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.05</v>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6401</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1732,14 +1775,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.03</v>
+          <t>910028</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3898</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1748,13 +1813,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3835</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>11</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.43</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603298-杭叉集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603298-杭叉集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1894,7 +1895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1905,17 +1906,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1925,14 +1946,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.55</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
@@ -1941,14 +2036,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="4">
@@ -1957,14 +2052,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>2.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
@@ -1973,13 +2068,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.43</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603298-杭叉集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603298-杭叉集团.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,475 +455,551 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>673110</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>西部利得新润灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>82.43</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2767</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002295</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发稳安灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.34</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1051</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005403</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方融尚再融资主题精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>81.57</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0173</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
+      <c r="D4" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007775</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇安量化先锋混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.66</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0126</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.03</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001917</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>招商量化精选股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.27</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0110</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007776</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇安量化先锋混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.66</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007950</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>招商量化精选股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.27</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005429</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>渤海汇金睿选混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>34.94</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005021</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>渤海汇金量化汇盈灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008604</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>广发稳安灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.34</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005430</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>渤海汇金睿选混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>34.94</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6401</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>910028</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3898</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3835</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009448</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009449</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1549,552 +1625,476 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009448</t>
+          <t>673110</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康申润一年持有期混合A</t>
+          <t>西部利得新润灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20.45</t>
+          <t>82.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0418</t>
+          <t>0.2767</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009449</t>
+          <t>002295</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康申润一年持有期混合C</t>
+          <t>广发稳安灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.45</t>
+          <t>90.34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0056</t>
+          <t>0.1051</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>910022</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方红启航三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>22.15</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6401</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>910028</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方红内需增长混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>13.44</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3898</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010225</t>
+          <t>005403</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东方红启航三年持有期混合B</t>
+          <t>南方融尚再融资主题精选灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.27</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>81.57</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3835</t>
+          <t>0.0173</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>012243</t>
+          <t>007775</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东方红内需增长混合型证券投资基金C</t>
+          <t>汇安量化先锋混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1337</t>
+          <t>0.0126</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001917</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007950</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005429</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>34.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005021</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>渤海汇金量化汇盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005430</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>34.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160613</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华盛世创新混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0937</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.03</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603298-杭叉集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603298-杭叉集团.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1.55</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>2.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>11</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -566,6 +583,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>37.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中融鑫思路灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>37.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012415</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>德邦上证 G60 创新综合指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>35.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>35.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012416</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>德邦上证 G60 创新综合指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -659,7 +960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -867,7 +1168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -999,7 +1300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1625,7 +1926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
